--- a/covid19/data_covid19_lab_by_time_2020-06-24.xlsx
+++ b/covid19/data_covid19_lab_by_time_2020-06-24.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O121"/>
+  <dimension ref="A1:O122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6288,7 +6288,7 @@
         <v>43980</v>
       </c>
       <c r="M97">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="N97">
         <v>16</v>
@@ -6654,7 +6654,7 @@
         <v>43986</v>
       </c>
       <c r="M103">
-        <v>2525</v>
+        <v>2526</v>
       </c>
       <c r="N103">
         <v>17</v>
@@ -7142,7 +7142,7 @@
         <v>43994</v>
       </c>
       <c r="M111">
-        <v>4110</v>
+        <v>4111</v>
       </c>
       <c r="N111">
         <v>13</v>
@@ -7325,7 +7325,7 @@
         <v>43997</v>
       </c>
       <c r="M114">
-        <v>5166</v>
+        <v>5167</v>
       </c>
       <c r="N114">
         <v>18</v>
@@ -7386,7 +7386,7 @@
         <v>43998</v>
       </c>
       <c r="M115">
-        <v>4861</v>
+        <v>4860</v>
       </c>
       <c r="N115">
         <v>36</v>
@@ -7447,7 +7447,7 @@
         <v>43999</v>
       </c>
       <c r="M116">
-        <v>4442</v>
+        <v>4452</v>
       </c>
       <c r="N116">
         <v>15</v>
@@ -7508,7 +7508,7 @@
         <v>44000</v>
       </c>
       <c r="M117">
-        <v>3932</v>
+        <v>3998</v>
       </c>
       <c r="N117">
         <v>13</v>
@@ -7569,10 +7569,10 @@
         <v>44001</v>
       </c>
       <c r="M118">
-        <v>3141</v>
+        <v>3281</v>
       </c>
       <c r="N118">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O118">
         <v>0.5</v>
@@ -7630,13 +7630,13 @@
         <v>44002</v>
       </c>
       <c r="M119">
-        <v>782</v>
+        <v>862</v>
       </c>
       <c r="N119">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O119">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="120">
@@ -7691,10 +7691,10 @@
         <v>44003</v>
       </c>
       <c r="M120">
-        <v>645</v>
+        <v>761</v>
       </c>
       <c r="N120">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O120">
         <v>0.5</v>
@@ -7752,13 +7752,74 @@
         <v>44004</v>
       </c>
       <c r="M121">
-        <v>975</v>
+        <v>3481</v>
       </c>
       <c r="N121">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="O121">
-        <v>0.3</v>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D122">
+        <v>2020</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G122">
+        <v>2020</v>
+      </c>
+      <c r="H122">
+        <v>26</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>2020-26</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K122">
+        <v>49</v>
+      </c>
+      <c r="L122" s="2">
+        <v>44005</v>
+      </c>
+      <c r="M122">
+        <v>981</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
